--- a/data/Контрольная работа № 2 (Общая экология 2024-2025).xlsx
+++ b/data/Контрольная работа № 2 (Общая экология 2024-2025).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9120"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2681" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2685" uniqueCount="793">
   <si>
     <t>Id</t>
   </si>
@@ -2157,6 +2157,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Дефицит фосфора дает преимущества видам микроорганизмов, способным выделять в среду вещества, ингибирующие рост конкурентов, эти вещества также отрицательно влияют на размножение фито-</t>
     </r>
     <r>
@@ -2204,6 +2211,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Гриб, формирующий микоризу -</t>
     </r>
     <r>
@@ -2239,6 +2253,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Дефицит азота дает преимущества видам микроорганизмов, способным выделять в среду вещества, ингибирующие рост конкурентов, эти вещества также отрицательно влияют на размножение фито-</t>
     </r>
     <r>
@@ -2289,6 +2310,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Гриб, формирующий микоризу -</t>
     </r>
     <r>
@@ -2321,6 +2349,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Обогащение морских акваторий азотом и фосфором с сельскохозяйственных угодий, расположенных на побережье, приводит к развитию бактерий, которые поглощают кислород, что приводит к гипоксии во всем объеме моря, а это</t>
     </r>
     <r>
@@ -2359,6 +2394,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Обогащение морских акваторий азотом и фосфором с сельскохозяйственных угодий, расположенных на побережье, приводит к развитию бактерий, которые поглощают кислород, что приводит к гипоксии во всем объеме моря, а это</t>
     </r>
     <r>
@@ -2433,6 +2475,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Обогащение морских акваторий азотом и фосфором с сельскохозяйственных угодий, расположенных на побережье, приводит к развитию бактерий, которые поглощают кислород, что приводит к гипоксии во всем объеме моря, а это</t>
     </r>
     <r>
@@ -2501,6 +2550,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Дефицит азота дает преимущества видам микроорганизмов, способным выделять в среду вещества, ингибирующие рост конкурентов, эти вещества также отрицательно влияют на размножение фито-</t>
     </r>
     <r>
@@ -2578,6 +2634,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Дефицит азота дает преимущества видам микроорганизмов, способным выделять в среду вещества, ингибирующие рост конкурентов, эти вещества также отрицательно влияют на размножение фито-</t>
     </r>
     <r>
@@ -2646,6 +2709,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Гриб, формирующий микоризу -</t>
     </r>
     <r>
@@ -2681,6 +2751,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Обогащение морских акваторий</t>
     </r>
     <r>
@@ -2746,6 +2823,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Гриб, формирующий микоризу -</t>
     </r>
     <r>
@@ -2778,6 +2862,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Обогащение морских акваторий</t>
     </r>
     <r>
@@ -2852,6 +2943,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Обогащение морских акваторий азотом и фосфором с сельскохозяйственных угодий, расположенных на побережье, приводит к развитию бактерий, которые поглощают кислород, что приводит к гипоксии во всем объеме моря, а это</t>
     </r>
     <r>
@@ -2917,6 +3015,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Человек - Эхинококк;Гриб, формирующий микоризу -</t>
     </r>
     <r>
@@ -2955,6 +3060,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Toxoplasma - Мышь;Toxoplasma - Кошка;Человек - Эхинококк;Гриб, формирующий микоризу -</t>
     </r>
     <r>
@@ -2984,6 +3096,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Человек - Эхинококк;Toxoplasma - Мышь;Гриб, формирующий микоризу -</t>
     </r>
     <r>
@@ -3019,6 +3138,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Дефицит азота дает преимущества видам микроорганизмов, способным выделять в среду вещества, ингибирующие рост конкурентов, эти вещества также отрицательно влияют на размножение фито-</t>
     </r>
     <r>
@@ -3090,6 +3216,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Человек - Собака;Гриб, формирующий микоризу -</t>
     </r>
     <r>
@@ -3114,6 +3247,18 @@
   <si>
     <t>Трофический уровень — это совокупность организмов, занимающих определенное положение в общей цепи питания.;Экосистема – это совокупность организмов и неорганических компонентов, в которой может осуществляться круговорот веществ.;Гомеостаз - это способность популяции или экосистемы поддерживать устойчивое динамическое равновесие в изменяющихся условиях среды.;В экологической пирамиде чисел численность организмов каждого последующего уровня всегда меньше предыдущего.;</t>
   </si>
+  <si>
+    <t>st138471@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Астапова</t>
+  </si>
+  <si>
+    <t>st138472@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Зиннатуллина</t>
+  </si>
 </sst>
 </file>
 
@@ -3126,7 +3271,7 @@
     <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy\ h:mm"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3139,13 +3284,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3614,28 +3752,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3644,122 +3785,119 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3770,6 +3908,9 @@
     <xf numFmtId="180" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -4030,8 +4171,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:BP124" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:BP124" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:BP126" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:BP126" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="68">
     <tableColumn id="1" name="Id" dataDxfId="0"/>
     <tableColumn id="2" name="Время начала"/>
@@ -4364,10 +4505,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BP124"/>
+  <dimension ref="A1:BP126"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112:AU124"/>
+      <selection activeCell="F126" sqref="F126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -18822,14 +18963,14 @@
         <v>1</v>
       </c>
       <c r="BJ102" s="2"/>
-      <c r="BK102" s="10" t="s">
+      <c r="BK102" s="11" t="s">
         <v>609</v>
       </c>
       <c r="BL102">
         <v>0</v>
       </c>
       <c r="BM102" s="2"/>
-      <c r="BN102" s="10" t="s">
+      <c r="BN102" s="11" t="s">
         <v>610</v>
       </c>
       <c r="BO102">
@@ -18984,14 +19125,14 @@
         <v>1</v>
       </c>
       <c r="BJ103" s="2"/>
-      <c r="BK103" s="10" t="s">
+      <c r="BK103" s="11" t="s">
         <v>625</v>
       </c>
       <c r="BL103">
         <v>1</v>
       </c>
       <c r="BM103" s="2"/>
-      <c r="BN103" s="10" t="s">
+      <c r="BN103" s="11" t="s">
         <v>626</v>
       </c>
       <c r="BO103">
@@ -19146,14 +19287,14 @@
         <v>1</v>
       </c>
       <c r="BJ104" s="2"/>
-      <c r="BK104" s="10" t="s">
+      <c r="BK104" s="11" t="s">
         <v>641</v>
       </c>
       <c r="BL104">
         <v>1</v>
       </c>
       <c r="BM104" s="2"/>
-      <c r="BN104" s="10" t="s">
+      <c r="BN104" s="11" t="s">
         <v>642</v>
       </c>
       <c r="BO104">
@@ -19308,14 +19449,14 @@
         <v>1</v>
       </c>
       <c r="BJ105" s="2"/>
-      <c r="BK105" s="10" t="s">
+      <c r="BK105" s="11" t="s">
         <v>657</v>
       </c>
       <c r="BL105">
         <v>1</v>
       </c>
       <c r="BM105" s="2"/>
-      <c r="BN105" s="10" t="s">
+      <c r="BN105" s="11" t="s">
         <v>610</v>
       </c>
       <c r="BO105">
@@ -19470,14 +19611,14 @@
         <v>1</v>
       </c>
       <c r="BJ106" s="2"/>
-      <c r="BK106" s="10" t="s">
+      <c r="BK106" s="11" t="s">
         <v>641</v>
       </c>
       <c r="BL106">
         <v>1</v>
       </c>
       <c r="BM106" s="2"/>
-      <c r="BN106" s="10" t="s">
+      <c r="BN106" s="11" t="s">
         <v>665</v>
       </c>
       <c r="BO106">
@@ -19632,14 +19773,14 @@
         <v>1</v>
       </c>
       <c r="BJ107" s="2"/>
-      <c r="BK107" s="10" t="s">
+      <c r="BK107" s="11" t="s">
         <v>672</v>
       </c>
       <c r="BL107">
         <v>1</v>
       </c>
       <c r="BM107" s="2"/>
-      <c r="BN107" s="10" t="s">
+      <c r="BN107" s="11" t="s">
         <v>673</v>
       </c>
       <c r="BO107">
@@ -19794,14 +19935,14 @@
         <v>1</v>
       </c>
       <c r="BJ108" s="2"/>
-      <c r="BK108" s="10" t="s">
+      <c r="BK108" s="11" t="s">
         <v>641</v>
       </c>
       <c r="BL108">
         <v>1</v>
       </c>
       <c r="BM108" s="2"/>
-      <c r="BN108" s="10" t="s">
+      <c r="BN108" s="11" t="s">
         <v>679</v>
       </c>
       <c r="BO108">
@@ -19956,14 +20097,14 @@
         <v>1</v>
       </c>
       <c r="BJ109" s="2"/>
-      <c r="BK109" s="10" t="s">
+      <c r="BK109" s="11" t="s">
         <v>686</v>
       </c>
       <c r="BL109">
         <v>1</v>
       </c>
       <c r="BM109" s="2"/>
-      <c r="BN109" s="10" t="s">
+      <c r="BN109" s="11" t="s">
         <v>642</v>
       </c>
       <c r="BO109">
@@ -20118,14 +20259,14 @@
         <v>1</v>
       </c>
       <c r="BJ110" s="2"/>
-      <c r="BK110" s="10" t="s">
+      <c r="BK110" s="11" t="s">
         <v>641</v>
       </c>
       <c r="BL110">
         <v>1</v>
       </c>
       <c r="BM110" s="2"/>
-      <c r="BN110" s="10" t="s">
+      <c r="BN110" s="11" t="s">
         <v>642</v>
       </c>
       <c r="BO110">
@@ -20280,14 +20421,14 @@
         <v>1</v>
       </c>
       <c r="BJ111" s="2"/>
-      <c r="BK111" s="10" t="s">
+      <c r="BK111" s="11" t="s">
         <v>699</v>
       </c>
       <c r="BL111">
         <v>1</v>
       </c>
       <c r="BM111" s="2"/>
-      <c r="BN111" s="10" t="s">
+      <c r="BN111" s="11" t="s">
         <v>700</v>
       </c>
       <c r="BO111">
@@ -22062,6 +22203,152 @@
       <c r="BN124" s="2"/>
       <c r="BO124" s="9"/>
       <c r="BP124" s="2"/>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="A125" s="9"/>
+      <c r="D125" s="10" t="s">
+        <v>789</v>
+      </c>
+      <c r="E125" s="10" t="s">
+        <v>790</v>
+      </c>
+      <c r="F125" s="9">
+        <v>19</v>
+      </c>
+      <c r="G125" s="2"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="2"/>
+      <c r="L125" s="2"/>
+      <c r="M125" s="9"/>
+      <c r="N125" s="2"/>
+      <c r="O125" s="2"/>
+      <c r="P125" s="9"/>
+      <c r="Q125" s="2"/>
+      <c r="R125" s="2"/>
+      <c r="S125" s="9"/>
+      <c r="T125" s="2"/>
+      <c r="U125" s="2"/>
+      <c r="V125" s="9"/>
+      <c r="W125" s="2"/>
+      <c r="X125" s="2"/>
+      <c r="Y125" s="9"/>
+      <c r="Z125" s="2"/>
+      <c r="AA125" s="2"/>
+      <c r="AB125" s="9"/>
+      <c r="AC125" s="2"/>
+      <c r="AD125" s="2"/>
+      <c r="AE125" s="9"/>
+      <c r="AF125" s="2"/>
+      <c r="AG125" s="2"/>
+      <c r="AH125" s="9"/>
+      <c r="AI125" s="2"/>
+      <c r="AJ125" s="2"/>
+      <c r="AK125" s="9"/>
+      <c r="AL125" s="2"/>
+      <c r="AM125" s="2"/>
+      <c r="AN125" s="9"/>
+      <c r="AO125" s="2"/>
+      <c r="AP125" s="2"/>
+      <c r="AQ125" s="9"/>
+      <c r="AR125" s="2"/>
+      <c r="AS125" s="2"/>
+      <c r="AT125" s="9"/>
+      <c r="AU125" s="2"/>
+      <c r="AV125" s="2"/>
+      <c r="AW125" s="9"/>
+      <c r="AX125" s="2"/>
+      <c r="AY125" s="2"/>
+      <c r="AZ125" s="9"/>
+      <c r="BA125" s="2"/>
+      <c r="BB125" s="2"/>
+      <c r="BC125" s="9"/>
+      <c r="BD125" s="2"/>
+      <c r="BE125" s="2"/>
+      <c r="BF125" s="9"/>
+      <c r="BG125" s="2"/>
+      <c r="BH125" s="2"/>
+      <c r="BI125" s="9"/>
+      <c r="BJ125" s="2"/>
+      <c r="BK125" s="2"/>
+      <c r="BL125" s="9"/>
+      <c r="BM125" s="2"/>
+      <c r="BN125" s="2"/>
+      <c r="BO125" s="9"/>
+      <c r="BP125" s="2"/>
+    </row>
+    <row r="126" spans="1:68">
+      <c r="A126" s="9"/>
+      <c r="D126" s="10" t="s">
+        <v>791</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>792</v>
+      </c>
+      <c r="F126" s="9">
+        <v>16</v>
+      </c>
+      <c r="G126" s="2"/>
+      <c r="I126" s="2"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="2"/>
+      <c r="L126" s="2"/>
+      <c r="M126" s="9"/>
+      <c r="N126" s="2"/>
+      <c r="O126" s="2"/>
+      <c r="P126" s="9"/>
+      <c r="Q126" s="2"/>
+      <c r="R126" s="2"/>
+      <c r="S126" s="9"/>
+      <c r="T126" s="2"/>
+      <c r="U126" s="2"/>
+      <c r="V126" s="9"/>
+      <c r="W126" s="2"/>
+      <c r="X126" s="2"/>
+      <c r="Y126" s="9"/>
+      <c r="Z126" s="2"/>
+      <c r="AA126" s="2"/>
+      <c r="AB126" s="9"/>
+      <c r="AC126" s="2"/>
+      <c r="AD126" s="2"/>
+      <c r="AE126" s="9"/>
+      <c r="AF126" s="2"/>
+      <c r="AG126" s="2"/>
+      <c r="AH126" s="9"/>
+      <c r="AI126" s="2"/>
+      <c r="AJ126" s="2"/>
+      <c r="AK126" s="9"/>
+      <c r="AL126" s="2"/>
+      <c r="AM126" s="2"/>
+      <c r="AN126" s="9"/>
+      <c r="AO126" s="2"/>
+      <c r="AP126" s="2"/>
+      <c r="AQ126" s="9"/>
+      <c r="AR126" s="2"/>
+      <c r="AS126" s="2"/>
+      <c r="AT126" s="9"/>
+      <c r="AU126" s="2"/>
+      <c r="AV126" s="2"/>
+      <c r="AW126" s="9"/>
+      <c r="AX126" s="2"/>
+      <c r="AY126" s="2"/>
+      <c r="AZ126" s="9"/>
+      <c r="BA126" s="2"/>
+      <c r="BB126" s="2"/>
+      <c r="BC126" s="9"/>
+      <c r="BD126" s="2"/>
+      <c r="BE126" s="2"/>
+      <c r="BF126" s="9"/>
+      <c r="BG126" s="2"/>
+      <c r="BH126" s="2"/>
+      <c r="BI126" s="9"/>
+      <c r="BJ126" s="2"/>
+      <c r="BK126" s="2"/>
+      <c r="BL126" s="9"/>
+      <c r="BM126" s="2"/>
+      <c r="BN126" s="2"/>
+      <c r="BO126" s="9"/>
+      <c r="BP126" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
